--- a/ITEST/itest.WebService/openl-repository/deployment4/simple4/module1.xlsx
+++ b/ITEST/itest.WebService/openl-repository/deployment4/simple4/module1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\ITEST\itest.WebService\openl-repository\deployment3\simple3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\ITEST\itest.WebService\openl-repository\deployment4\simple4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CBF716-A66D-4231-9FAE-B98029C5F382}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7F7941-9C17-4479-BB06-FBFE5C51BB8E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="450" windowWidth="28845" windowHeight="20115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2925" yWindow="1470" windowWidth="28875" windowHeight="17610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="5" r:id="rId1"/>
@@ -408,7 +408,7 @@
     <t>= spr(new Double[]{})</t>
   </si>
   <si>
-    <t>verboseOutputModel</t>
+    <t>detailedPlainModel</t>
   </si>
 </sst>
 </file>
@@ -803,7 +803,7 @@
   <dimension ref="A2:R65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/ITEST/itest.WebService/openl-repository/deployment4/simple4/module1.xlsx
+++ b/ITEST/itest.WebService/openl-repository/deployment4/simple4/module1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\ITEST\itest.WebService\openl-repository\deployment4\simple4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7F7941-9C17-4479-BB06-FBFE5C51BB8E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90675377-D391-4BA4-83DA-32FA570C9336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="1470" windowWidth="28875" windowHeight="17610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="mysprs" sheetId="8" r:id="rId4"/>
     <sheet name="mysprs2" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -276,15 +276,9 @@
     <t>Spreadsheet SpreadsheetResult mySpr()</t>
   </si>
   <si>
-    <t>Value2</t>
-  </si>
-  <si>
     <t>Step2*</t>
   </si>
   <si>
-    <t>Value1*</t>
-  </si>
-  <si>
     <t>Step1*</t>
   </si>
   <si>
@@ -336,12 +330,6 @@
     <t>Step4*</t>
   </si>
   <si>
-    <t>Value3*</t>
-  </si>
-  <si>
-    <t>Value4*</t>
-  </si>
-  <si>
     <t>Spreadsheet SpreadsheetResult mySpr2()</t>
   </si>
   <si>
@@ -409,6 +397,18 @@
   </si>
   <si>
     <t>detailedPlainModel</t>
+  </si>
+  <si>
+    <t>Value3</t>
+  </si>
+  <si>
+    <t>Value4</t>
+  </si>
+  <si>
+    <t>Value2~</t>
+  </si>
+  <si>
+    <t>Value1</t>
   </si>
 </sst>
 </file>
@@ -806,24 +806,24 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -831,18 +831,18 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>0</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>3</v>
@@ -872,7 +872,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -890,7 +890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
@@ -898,15 +898,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
@@ -914,7 +914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
@@ -922,7 +922,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
@@ -930,24 +930,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -956,7 +956,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
@@ -964,7 +964,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
@@ -972,40 +972,40 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B24" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B25" s="3" t="s">
         <v>77</v>
       </c>
@@ -1013,34 +1013,34 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C29" s="11">
         <v>0</v>
@@ -1049,7 +1049,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1057,7 +1057,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1065,7 +1065,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>34</v>
@@ -1075,7 +1075,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>36</v>
@@ -1129,7 +1129,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>35</v>
@@ -1183,7 +1183,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>37</v>
@@ -1237,7 +1237,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1245,7 +1245,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1253,13 +1253,13 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
         <v>38</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>2</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>3</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>10</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>13</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>14</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52" s="1" t="s">
         <v>15</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53" s="1" t="s">
         <v>16</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54" s="1" t="s">
         <v>18</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55" s="1" t="s">
         <v>19</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56" s="1" t="s">
         <v>20</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57" s="1" t="s">
         <v>21</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>57</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>23</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>25</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>28</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>62</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>63</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>64</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>65</v>
       </c>
@@ -1440,9 +1440,9 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1450,7 +1450,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1458,7 +1458,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1468,7 +1468,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -1480,7 +1480,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -1492,7 +1492,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -1504,7 +1504,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -1516,7 +1516,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -1528,7 +1528,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -1540,19 +1540,19 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1576,25 +1576,25 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
       <c r="B16" s="11" t="s">
         <v>23</v>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
         <v>25</v>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
         <v>28</v>
@@ -1624,47 +1624,47 @@
       </c>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
         <v>77</v>
@@ -1674,43 +1674,43 @@
       </c>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1729,15 +1729,15 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
@@ -1767,18 +1767,18 @@
   <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1786,67 +1786,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="12"/>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="11"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1855,9 +1855,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -1866,42 +1866,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>96</v>
-      </c>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>35</v>
@@ -1911,22 +1911,22 @@
       </c>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C26" s="11">
         <v>1</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1943,19 +1943,19 @@
   <dimension ref="B3:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1964,97 +1964,97 @@
       </c>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="13"/>
       <c r="C9" s="11"/>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C19" s="11">
         <v>1</v>
@@ -2063,9 +2063,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C20" s="11">
         <v>3</v>
@@ -2074,43 +2074,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>35</v>
@@ -2119,9 +2119,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2129,12 +2129,12 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C27" s="11">
         <v>1</v>

--- a/ITEST/itest.WebService/openl-repository/deployment4/simple4/module1.xlsx
+++ b/ITEST/itest.WebService/openl-repository/deployment4/simple4/module1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\ITEST\itest.WebService\openl-repository\deployment4\simple4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenL\ITEST\itest.WebService\openl-repository\deployment4\simple4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90675377-D391-4BA4-83DA-32FA570C9336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C28053-FAD7-45B7-BB60-4EF11ED02D7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="125">
   <si>
     <t>Steps</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>=main()</t>
-  </si>
-  <si>
-    <t>= $Step1.toPlain()</t>
   </si>
   <si>
     <t>= $Step1.toMap()</t>
@@ -464,7 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -480,9 +477,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -520,7 +517,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -626,7 +623,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -800,30 +797,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:R65"/>
+  <dimension ref="A2:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="33.265625" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -831,18 +828,18 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>0</v>
@@ -852,7 +849,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -862,7 +859,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>3</v>
@@ -872,7 +869,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -882,7 +879,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -890,7 +887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
@@ -898,15 +895,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
@@ -914,15 +911,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
@@ -930,24 +927,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -956,7 +953,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
@@ -964,7 +961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
@@ -972,75 +969,75 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="11">
         <v>0</v>
@@ -1049,7 +1046,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1057,7 +1054,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1065,179 +1062,179 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="M33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N33" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="O33" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="P33" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="Q33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="R33" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="R33" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1245,7 +1242,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1253,13 +1250,13 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,15 +1264,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>2</v>
       </c>
@@ -1283,119 +1280,119 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B51" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="2" t="s">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B56" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B57" s="1" t="s">
-        <v>21</v>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>56</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>62</v>
       </c>
@@ -1403,7 +1400,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>63</v>
       </c>
@@ -1411,20 +1408,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B65" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1440,9 +1429,9 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1450,7 +1439,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1458,7 +1447,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1468,7 +1457,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -1480,7 +1469,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -1492,7 +1481,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -1504,7 +1493,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -1516,7 +1505,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -1528,7 +1517,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -1540,19 +1529,19 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1560,15 +1549,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1576,25 +1565,25 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="11" t="s">
         <v>23</v>
@@ -1604,7 +1593,7 @@
       </c>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
         <v>25</v>
@@ -1614,7 +1603,7 @@
       </c>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
         <v>28</v>
@@ -1624,93 +1613,93 @@
       </c>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>78</v>
-      </c>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1729,15 +1718,15 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1745,7 +1734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1753,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
@@ -1770,15 +1759,15 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1786,67 +1775,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="12"/>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
         <v>83</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1855,9 +1844,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -1866,67 +1855,67 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" s="11">
         <v>1</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1946,16 +1935,16 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1964,97 +1953,97 @@
       </c>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="13"/>
       <c r="C9" s="11"/>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="11">
         <v>1</v>
@@ -2063,9 +2052,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" s="11">
         <v>3</v>
@@ -2074,54 +2063,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2129,12 +2118,12 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" s="11">
         <v>1</v>

--- a/ITEST/itest.WebService/openl-repository/deployment4/simple4/module1.xlsx
+++ b/ITEST/itest.WebService/openl-repository/deployment4/simple4/module1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenL\ITEST\itest.WebService\openl-repository\deployment4\simple4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\ITEST\itest.WebService\openl-repository\deployment4\simple4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C28053-FAD7-45B7-BB60-4EF11ED02D7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FCAD29-2210-47B9-9F5E-99F501C6CE1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6110" yWindow="2130" windowWidth="24340" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="5" r:id="rId1"/>
@@ -20,13 +20,6 @@
     <sheet name="mysprs2" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -393,9 +386,6 @@
     <t>= spr(new Double[]{})</t>
   </si>
   <si>
-    <t>detailedPlainModel</t>
-  </si>
-  <si>
     <t>Value3</t>
   </si>
   <si>
@@ -406,6 +396,9 @@
   </si>
   <si>
     <t>Value1</t>
+  </si>
+  <si>
+    <t>tableStructureDetails</t>
   </si>
 </sst>
 </file>
@@ -461,7 +454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -477,9 +470,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -517,7 +510,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -623,7 +616,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -799,28 +792,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -828,18 +821,18 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>0</v>
@@ -849,7 +842,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -859,7 +852,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>3</v>
@@ -869,7 +862,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -879,7 +872,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -887,7 +880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
@@ -895,7 +888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
@@ -903,7 +896,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
@@ -911,7 +904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
@@ -919,7 +912,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
@@ -927,7 +920,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
@@ -935,7 +928,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
@@ -944,7 +937,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -953,7 +946,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
@@ -961,7 +954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
@@ -969,7 +962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>61</v>
       </c>
@@ -978,7 +971,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>62</v>
       </c>
@@ -986,7 +979,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>63</v>
       </c>
@@ -994,7 +987,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>64</v>
       </c>
@@ -1002,7 +995,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>76</v>
       </c>
@@ -1010,7 +1003,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>113</v>
       </c>
@@ -1018,7 +1011,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>115</v>
       </c>
@@ -1026,7 +1019,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>117</v>
       </c>
@@ -1034,7 +1027,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
         <v>105</v>
@@ -1046,7 +1039,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1054,7 +1047,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1062,7 +1055,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>33</v>
@@ -1072,7 +1065,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>35</v>
@@ -1126,7 +1119,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>34</v>
@@ -1180,7 +1173,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>36</v>
@@ -1234,7 +1227,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1242,7 +1235,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1250,13 +1243,13 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>37</v>
       </c>
@@ -1272,7 +1265,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>2</v>
       </c>
@@ -1280,7 +1273,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>3</v>
       </c>
@@ -1288,7 +1281,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>13</v>
       </c>
@@ -1296,7 +1289,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>14</v>
       </c>
@@ -1304,7 +1297,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>15</v>
       </c>
@@ -1312,7 +1305,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>16</v>
       </c>
@@ -1320,7 +1313,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>18</v>
       </c>
@@ -1328,7 +1321,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>19</v>
       </c>
@@ -1336,7 +1329,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>20</v>
       </c>
@@ -1344,7 +1337,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>21</v>
       </c>
@@ -1352,7 +1345,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>56</v>
       </c>
@@ -1360,7 +1353,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>23</v>
       </c>
@@ -1368,7 +1361,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>25</v>
       </c>
@@ -1376,7 +1369,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>28</v>
       </c>
@@ -1384,7 +1377,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>61</v>
       </c>
@@ -1392,7 +1385,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>62</v>
       </c>
@@ -1400,7 +1393,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>63</v>
       </c>
@@ -1408,7 +1401,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>64</v>
       </c>
@@ -1429,9 +1422,9 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1439,7 +1432,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1447,7 +1440,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1457,7 +1450,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -1469,7 +1462,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -1481,7 +1474,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -1493,7 +1486,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -1505,7 +1498,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -1517,7 +1510,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -1529,7 +1522,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>15</v>
@@ -1541,7 +1534,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1549,7 +1542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1557,7 +1550,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1565,7 +1558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1573,7 +1566,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11" t="s">
         <v>21</v>
@@ -1583,7 +1576,7 @@
       </c>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11" t="s">
         <v>23</v>
@@ -1593,7 +1586,7 @@
       </c>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
         <v>25</v>
@@ -1603,7 +1596,7 @@
       </c>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
         <v>28</v>
@@ -1613,7 +1606,7 @@
       </c>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="s">
         <v>61</v>
@@ -1623,7 +1616,7 @@
       </c>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="s">
         <v>62</v>
@@ -1633,7 +1626,7 @@
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11" t="s">
         <v>63</v>
@@ -1643,7 +1636,7 @@
       </c>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11" t="s">
         <v>64</v>
@@ -1653,7 +1646,7 @@
       </c>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
         <v>76</v>
@@ -1663,7 +1656,7 @@
       </c>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
         <v>113</v>
@@ -1673,7 +1666,7 @@
       </c>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
         <v>115</v>
@@ -1683,7 +1676,7 @@
       </c>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
         <v>117</v>
@@ -1693,13 +1686,13 @@
       </c>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1718,15 +1711,15 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1734,7 +1727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1742,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
@@ -1759,15 +1752,15 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1775,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1783,35 +1776,35 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>82</v>
       </c>
@@ -1822,18 +1815,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>81</v>
       </c>
@@ -1844,7 +1837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>80</v>
       </c>
@@ -1855,18 +1848,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
         <v>90</v>
@@ -1874,7 +1867,7 @@
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
         <v>87</v>
@@ -1887,7 +1880,7 @@
       </c>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
         <v>86</v>
@@ -1900,7 +1893,7 @@
       </c>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
         <v>84</v>
@@ -1912,7 +1905,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11" t="s">
         <v>85</v>
@@ -1935,16 +1928,16 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>94</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1953,7 +1946,7 @@
       </c>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1962,64 +1955,64 @@
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
       <c r="C9" s="11"/>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>98</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>82</v>
       </c>
@@ -2030,18 +2023,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>96</v>
       </c>
@@ -2052,7 +2045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>97</v>
       </c>
@@ -2063,24 +2056,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
         <v>87</v>
       </c>
@@ -2097,7 +2090,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>86</v>
       </c>
@@ -2108,7 +2101,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>84</v>
       </c>
@@ -2121,7 +2114,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>85</v>
       </c>
